--- a/Toilet location dataset.xlsx
+++ b/Toilet location dataset.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J'sen\Desktop\GitHub\2006-SCS2-ClumsyKoalas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6494a95ae17fe58b/Desktop/SC2006 - Software Engineering/SC2006-LooLah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B60145-CD85-43E6-9954-C4E554A5A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{83B60145-CD85-43E6-9954-C4E554A5A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E166FDB-4F8F-47B2-AE51-7EEF79520456}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{323EAB5C-688C-439B-A0FC-FD59FCC086A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{323EAB5C-688C-439B-A0FC-FD59FCC086A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$349</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2548,22 +2551,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48CBD73-C1E2-4D5E-B3CD-1CB2AB9C6D25}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>Central</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>North East</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>North West</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2665,7 +2669,7 @@
         <v>South East</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>South West</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>Market &amp; Food Centre</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>MRT Station</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>Park</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>Pier</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>Place of worship</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>Private Office</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>Restaurant</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2821,7 +2825,7 @@
         <v>Shopping Centre</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>Tourist Attraction</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>Community Centre</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>Food Court</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>Dormitory</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>Industrial Complex</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>684</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>684</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>684</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>684</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>684</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>684</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>684</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>684</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>684</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>684</v>
       </c>
@@ -3046,7 +3050,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>684</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>684</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>684</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>684</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>684</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>684</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>684</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>684</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>684</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>684</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>684</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>684</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>684</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>684</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>684</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>684</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>684</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>684</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>684</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>684</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>684</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>684</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>684</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>684</v>
       </c>
@@ -3382,7 +3386,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>684</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>684</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>684</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3480,7 +3484,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -3676,7 +3680,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -3690,7 +3694,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -3746,7 +3750,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -3928,7 +3932,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -4068,7 +4072,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -4082,7 +4086,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -4138,7 +4142,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>103</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -4292,7 +4296,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -4306,7 +4310,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>103</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>234</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>237</v>
       </c>
@@ -4390,7 +4394,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>239</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>242</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>242</v>
       </c>
@@ -4432,7 +4436,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>247</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>250</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>250</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>250</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>250</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>250</v>
       </c>
@@ -4516,7 +4520,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>250</v>
       </c>
@@ -4530,7 +4534,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>250</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>250</v>
       </c>
@@ -4558,7 +4562,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>250</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>250</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>250</v>
       </c>
@@ -4600,7 +4604,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>250</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -4628,7 +4632,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>275</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>275</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>275</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>275</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>275</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>275</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>275</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>275</v>
       </c>
@@ -4740,7 +4744,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>275</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>275</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>275</v>
       </c>
@@ -4782,7 +4786,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>275</v>
       </c>
@@ -4796,7 +4800,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>275</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -4824,7 +4828,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>29</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>29</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>29</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>29</v>
       </c>
@@ -4978,7 +4982,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>684</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>684</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>684</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>684</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>684</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>103</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>103</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>103</v>
       </c>
@@ -5104,7 +5108,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>103</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>103</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>103</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>103</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>103</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>103</v>
       </c>
@@ -5188,7 +5192,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>103</v>
       </c>
@@ -5202,7 +5206,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>103</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>103</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>103</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>103</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>103</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>239</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -5300,7 +5304,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>250</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>250</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>250</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>250</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>250</v>
       </c>
@@ -5370,7 +5374,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>250</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>250</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>250</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>250</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>3</v>
       </c>
@@ -5468,7 +5472,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>3</v>
       </c>
@@ -5538,7 +5542,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>29</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>29</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>416</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>684</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>684</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>684</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>684</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>684</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>684</v>
       </c>
@@ -5692,7 +5696,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>103</v>
       </c>
@@ -5706,7 +5710,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>103</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>103</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>103</v>
       </c>
@@ -5748,7 +5752,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>103</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>103</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>103</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>103</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>103</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>103</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>103</v>
       </c>
@@ -5846,7 +5850,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>103</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>103</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>103</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>103</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>103</v>
       </c>
@@ -5916,7 +5920,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>103</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>103</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>250</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>250</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>250</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>250</v>
       </c>
@@ -6014,7 +6018,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>250</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -6042,7 +6046,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>3</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>3</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>3</v>
       </c>
@@ -6098,7 +6102,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -6126,7 +6130,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>35</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>684</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>684</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>684</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>684</v>
       </c>
@@ -6196,7 +6200,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>684</v>
       </c>
@@ -6210,7 +6214,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>684</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>684</v>
       </c>
@@ -6238,7 +6242,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>103</v>
       </c>
@@ -6252,7 +6256,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>103</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>103</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>103</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>103</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>103</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>103</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>103</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>103</v>
       </c>
@@ -6364,7 +6368,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>103</v>
       </c>
@@ -6378,7 +6382,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>103</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>103</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>103</v>
       </c>
@@ -6420,7 +6424,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>103</v>
       </c>
@@ -6434,7 +6438,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>103</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>103</v>
       </c>
@@ -6462,7 +6466,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>103</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>103</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>103</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>103</v>
       </c>
@@ -6518,7 +6522,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>242</v>
       </c>
@@ -6532,7 +6536,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>242</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>242</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>242</v>
       </c>
@@ -6574,7 +6578,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>250</v>
       </c>
@@ -6588,7 +6592,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>250</v>
       </c>
@@ -6602,7 +6606,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>3</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>3</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>3</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>3</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>3</v>
       </c>
@@ -6672,7 +6676,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>3</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>3</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>29</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>29</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>574</v>
       </c>
@@ -6742,7 +6746,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>574</v>
       </c>
@@ -6756,7 +6760,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>32</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>32</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>582</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>582</v>
       </c>
@@ -6812,7 +6816,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>582</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>582</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>582</v>
       </c>
@@ -6854,7 +6858,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>582</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>582</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>684</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>684</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>684</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>684</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>684</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>684</v>
       </c>
@@ -6966,7 +6970,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>684</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>684</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>103</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>103</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>103</v>
       </c>
@@ -7036,7 +7040,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>103</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>103</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>103</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>103</v>
       </c>
@@ -7092,7 +7096,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>103</v>
       </c>
@@ -7106,7 +7110,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>103</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>103</v>
       </c>
@@ -7134,7 +7138,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>103</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>103</v>
       </c>
@@ -7162,7 +7166,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>103</v>
       </c>
@@ -7176,7 +7180,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>103</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>103</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>103</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>103</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>103</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>103</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>103</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>103</v>
       </c>
@@ -7288,7 +7292,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>103</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>103</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>103</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>234</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>242</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>242</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>250</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>250</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>250</v>
       </c>
@@ -7414,7 +7418,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>250</v>
       </c>
@@ -7428,7 +7432,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>250</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>250</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>250</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>250</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>250</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>250</v>
       </c>
@@ -7512,7 +7516,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>250</v>
       </c>
@@ -7527,6 +7531,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D349" xr:uid="{C48CBD73-C1E2-4D5E-B3CD-1CB2AB9C6D25}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Central"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Toilet location dataset.xlsx
+++ b/Toilet location dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6494a95ae17fe58b/Desktop/SC2006 - Software Engineering/SC2006-LooLah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{83B60145-CD85-43E6-9954-C4E554A5A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E166FDB-4F8F-47B2-AE51-7EEF79520456}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{83B60145-CD85-43E6-9954-C4E554A5A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0179C464-1091-46AE-9F11-6FDD21D331C9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{323EAB5C-688C-439B-A0FC-FD59FCC086A5}"/>
   </bookViews>
@@ -2252,6 +2252,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2555,7 +2559,7 @@
   <dimension ref="A1:G349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4436,7 +4440,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>247</v>
       </c>
